--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.05895546039743757</v>
+        <v>0.04912295720824748</v>
       </c>
       <c r="D2">
-        <v>0.9529945995559528</v>
+        <v>0.9612645567762683</v>
       </c>
       <c r="E2">
         <v>0.9396321960483976</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.2452195566607823</v>
+        <v>-0.2037890831511524</v>
       </c>
       <c r="D3">
-        <v>0.8063164022511558</v>
+        <v>0.8403916250389059</v>
       </c>
       <c r="E3">
         <v>0.9396321960483976</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.05776550273367521</v>
+        <v>-0.07903642456770558</v>
       </c>
       <c r="D4">
-        <v>0.9539422907587305</v>
+        <v>0.9377181626776185</v>
       </c>
       <c r="E4">
         <v>0.9396321960483976</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.5808506750797844</v>
+        <v>0.4926943900923948</v>
       </c>
       <c r="D5">
-        <v>0.5614190534105976</v>
+        <v>0.6271099885974034</v>
       </c>
       <c r="E5">
         <v>0.9396321960483976</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.2923752745431829</v>
+        <v>-0.2690620020950505</v>
       </c>
       <c r="D6">
-        <v>0.7700358348039358</v>
+        <v>0.7903892293056161</v>
       </c>
       <c r="E6">
         <v>0.9356649553994306</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.1363823079064876</v>
+        <v>-0.1404202391429826</v>
       </c>
       <c r="D7">
-        <v>0.8915354092978889</v>
+        <v>0.889605699955456</v>
       </c>
       <c r="E7">
         <v>0.9356649553994306</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.8186923153285049</v>
+        <v>1.088164056914269</v>
       </c>
       <c r="D8">
-        <v>0.413078162704922</v>
+        <v>0.2883004501516211</v>
       </c>
       <c r="E8">
         <v>0.9356649553994306</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.1742536165735359</v>
+        <v>0.184950544150321</v>
       </c>
       <c r="D9">
-        <v>0.8616871576388383</v>
+        <v>0.8549622477527479</v>
       </c>
       <c r="E9">
         <v>0.9539940540271733</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.9112933865840079</v>
+        <v>0.8261477443632111</v>
       </c>
       <c r="D10">
-        <v>0.3622716243729436</v>
+        <v>0.4175901721580413</v>
       </c>
       <c r="E10">
         <v>0.9539940540271733</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.7878349694841805</v>
+        <v>0.7530079019237732</v>
       </c>
       <c r="D11">
-        <v>0.4309044497335499</v>
+        <v>0.4594278865819785</v>
       </c>
       <c r="E11">
         <v>0.9433730096397407</v>
